--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H2">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I2">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J2">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>129.7784478237</v>
+        <v>9.384607053924444</v>
       </c>
       <c r="R2">
-        <v>1168.0060304133</v>
+        <v>84.46146348532001</v>
       </c>
       <c r="S2">
-        <v>0.005166970879710934</v>
+        <v>0.0005147097669228203</v>
       </c>
       <c r="T2">
-        <v>0.005166970879710935</v>
+        <v>0.0005147097669228202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H3">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I3">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J3">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>318.8079732400333</v>
+        <v>139.9443553042098</v>
       </c>
       <c r="R3">
-        <v>2869.2717591603</v>
+        <v>1259.499197737888</v>
       </c>
       <c r="S3">
-        <v>0.01269295126867816</v>
+        <v>0.007675412096308546</v>
       </c>
       <c r="T3">
-        <v>0.01269295126867816</v>
+        <v>0.007675412096308543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H4">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I4">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J4">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>163.445247914325</v>
+        <v>53.12182167441334</v>
       </c>
       <c r="R4">
-        <v>1471.007231228925</v>
+        <v>478.09639506972</v>
       </c>
       <c r="S4">
-        <v>0.006507373532065213</v>
+        <v>0.0029135285361915</v>
       </c>
       <c r="T4">
-        <v>0.006507373532065213</v>
+        <v>0.002913528536191499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>873.989883</v>
       </c>
       <c r="I5">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J5">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>4817.316868431443</v>
+        <v>793.583299313935</v>
       </c>
       <c r="R5">
-        <v>43355.85181588299</v>
+        <v>7142.249693825415</v>
       </c>
       <c r="S5">
-        <v>0.1917956054717121</v>
+        <v>0.04352500564772253</v>
       </c>
       <c r="T5">
-        <v>0.1917956054717121</v>
+        <v>0.04352500564772253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>873.989883</v>
       </c>
       <c r="I6">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J6">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>11834.0067479154</v>
@@ -818,10 +818,10 @@
         <v>106506.0607312386</v>
       </c>
       <c r="S6">
-        <v>0.4711565693854383</v>
+        <v>0.6490499623461017</v>
       </c>
       <c r="T6">
-        <v>0.4711565693854383</v>
+        <v>0.6490499623461016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>873.989883</v>
       </c>
       <c r="I7">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J7">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>6067.013152386068</v>
+        <v>4492.099697697885</v>
       </c>
       <c r="R7">
-        <v>54603.11837147462</v>
+        <v>40428.89727928097</v>
       </c>
       <c r="S7">
-        <v>0.2415507413664513</v>
+        <v>0.2463744699283138</v>
       </c>
       <c r="T7">
-        <v>0.2415507413664513</v>
+        <v>0.2463744699283138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H8">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I8">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J8">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>378.832087654472</v>
+        <v>42.21423791256833</v>
       </c>
       <c r="R8">
-        <v>3409.488788890248</v>
+        <v>379.928141213115</v>
       </c>
       <c r="S8">
-        <v>0.01508273829773218</v>
+        <v>0.002315289327720579</v>
       </c>
       <c r="T8">
-        <v>0.01508273829773218</v>
+        <v>0.002315289327720579</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H9">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I9">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J9">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>930.6220877867298</v>
+        <v>629.5036409502574</v>
       </c>
       <c r="R9">
-        <v>8375.598790080569</v>
+        <v>5665.532768552316</v>
       </c>
       <c r="S9">
-        <v>0.03705158528434568</v>
+        <v>0.03452586458322503</v>
       </c>
       <c r="T9">
-        <v>0.03705158528434568</v>
+        <v>0.03452586458322502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H10">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I10">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J10">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>477.107759592722</v>
+        <v>238.954833764185</v>
       </c>
       <c r="R10">
-        <v>4293.969836334498</v>
+        <v>2150.593503877665</v>
       </c>
       <c r="S10">
-        <v>0.01899546451386613</v>
+        <v>0.01310575776749354</v>
       </c>
       <c r="T10">
-        <v>0.01899546451386613</v>
+        <v>0.01310575776749354</v>
       </c>
     </row>
   </sheetData>
